--- a/hund_mountain/source/bus_station.xlsx
+++ b/hund_mountain/source/bus_station.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E112"/>
+  <dimension ref="A2:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서울고속</t>
+          <t>서울고속 (경부, 영동)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -448,19 +448,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>동서울</t>
+          <t>센트럴시티(서울)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>광진구 구의동 546-1</t>
+          <t>서초구 반포동 19-5</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37.5333713</v>
+        <v>37.5059254</v>
       </c>
       <c r="E3" t="n">
-        <v>127.0933675</v>
+        <v>127.0051728</v>
       </c>
     </row>
     <row r="4">
@@ -469,19 +469,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>동서울(경부)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>중량구상봉동 83-1</t>
+          <t>광진구 구의동 546-1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37.5958742</v>
+        <v>37.5333713</v>
       </c>
       <c r="E4" t="n">
-        <v>127.0919857</v>
+        <v>127.0933675</v>
       </c>
     </row>
     <row r="5">
@@ -490,19 +490,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>고양(화정)</t>
+          <t>동서울(호남,영동)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>고양시 덕양구 화정동 974</t>
+          <t>광진구 구의동 546-1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37.633989</v>
+        <v>37.5333713</v>
       </c>
       <c r="E5" t="n">
-        <v>126.8337969</v>
+        <v>127.0933675</v>
       </c>
     </row>
     <row r="6">
@@ -511,19 +511,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>성남(분당)</t>
+          <t>상봉</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>성남시 야탑동 341</t>
+          <t>중량구상봉동 83-1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37.4130682</v>
+        <v>37.5958742</v>
       </c>
       <c r="E6" t="n">
-        <v>127.1272313</v>
+        <v>127.0919857</v>
       </c>
     </row>
     <row r="7">
@@ -532,19 +532,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수원</t>
+          <t>고양(화정)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수원시 권선구 권선동 1189</t>
+          <t>고양시 덕양구 화정동 974</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37.2503146</v>
+        <v>37.633989</v>
       </c>
       <c r="E7" t="n">
-        <v>127.0208435</v>
+        <v>126.8337969</v>
       </c>
     </row>
     <row r="8">
@@ -553,19 +553,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>안산</t>
+          <t>성남(분당)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>안산시 성포동 590</t>
+          <t>성남시 야탑동 341</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37.3171241</v>
+        <v>37.4130682</v>
       </c>
       <c r="E8" t="n">
-        <v>126.8479131</v>
+        <v>127.1272313</v>
       </c>
     </row>
     <row r="9">
@@ -574,19 +574,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>안성</t>
+          <t>수원</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>안성시 가사동 182</t>
+          <t>수원시 권선구 권선동 1189</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37.0122084</v>
+        <v>37.2503146</v>
       </c>
       <c r="E9" t="n">
-        <v>127.2936429</v>
+        <v>127.0208435</v>
       </c>
     </row>
     <row r="10">
@@ -595,19 +595,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>여주</t>
+          <t>안산</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>여주시 여주읍 홍문리 269-4</t>
+          <t>안산시 성포동 590</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37.2908754</v>
+        <v>37.3171241</v>
       </c>
       <c r="E10" t="n">
-        <v>127.6354146</v>
+        <v>126.8479131</v>
       </c>
     </row>
     <row r="11">
@@ -616,19 +616,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>여주종합</t>
+          <t>안성</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>여주시 여주읍 홍문리 274-1</t>
+          <t>안성시 가사동 182</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37.2904864</v>
+        <v>37.0122084</v>
       </c>
       <c r="E11" t="n">
-        <v>127.6352203</v>
+        <v>127.2936429</v>
       </c>
     </row>
     <row r="12">
@@ -637,19 +637,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>의정부</t>
+          <t>여주</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>의정부시 금오동 369-5</t>
+          <t>여주시 여주읍 홍문리 269-4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37.745424</v>
+        <v>37.2908754</v>
       </c>
       <c r="E12" t="n">
-        <v>127.0550638</v>
+        <v>127.6354146</v>
       </c>
     </row>
     <row r="13">
@@ -658,19 +658,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>용인</t>
+          <t>여주종합</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>용인시 김량장동 23-1</t>
+          <t>여주시 여주읍 홍문리 274-1</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37.2324464</v>
+        <v>37.2904864</v>
       </c>
       <c r="E13" t="n">
-        <v>127.2103253</v>
+        <v>127.6352203</v>
       </c>
     </row>
     <row r="14">
@@ -679,19 +679,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>용인유방</t>
+          <t>의정부</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>용인시 처인구 유방동 310-12번지</t>
+          <t>의정부시 금오동 369-5</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37.2584159</v>
+        <v>37.745424</v>
       </c>
       <c r="E14" t="n">
-        <v>127.2127328</v>
+        <v>127.0550638</v>
       </c>
     </row>
     <row r="15">
@@ -700,19 +700,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>이천</t>
+          <t>용인</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>이천시 중리동 219-1</t>
+          <t>용인시 김량장동 23-1</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37.276916</v>
+        <v>37.2324464</v>
       </c>
       <c r="E15" t="n">
-        <v>127.4473819</v>
+        <v>127.2103253</v>
       </c>
     </row>
     <row r="16">
@@ -721,19 +721,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>평택</t>
+          <t>용인유방</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>평택시 평택동 55-5</t>
+          <t>용인시 처인구 유방동 310-12번지</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36.9908811</v>
+        <v>37.2584159</v>
       </c>
       <c r="E16" t="n">
-        <v>127.0868879</v>
+        <v>127.2127328</v>
       </c>
     </row>
     <row r="17">
@@ -742,19 +742,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>평택대</t>
+          <t>이천</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>평택시 소사동 4-3</t>
+          <t>이천시 중리동 219-1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36.9928396</v>
+        <v>37.276916</v>
       </c>
       <c r="E17" t="n">
-        <v>127.1323409</v>
+        <v>127.4473819</v>
       </c>
     </row>
     <row r="18">
@@ -763,19 +763,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>광명</t>
+          <t>평택</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>광명시 광명역로 51</t>
+          <t>평택시 평택동 55-5</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37.4165133</v>
+        <v>36.9908811</v>
       </c>
       <c r="E18" t="n">
-        <v>126.8849516</v>
+        <v>127.0868879</v>
       </c>
     </row>
     <row r="19">
@@ -784,19 +784,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>오산</t>
+          <t>평택대</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>경기 오산시 역광장로 59</t>
+          <t>평택시 소사동 4-3</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37.1454386</v>
+        <v>36.9928396</v>
       </c>
       <c r="E19" t="n">
-        <v>127.0668089</v>
+        <v>127.1323409</v>
       </c>
     </row>
     <row r="20">
@@ -805,19 +805,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>시흥시화</t>
+          <t>광명</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>경기 시흥시 정왕동 1745-6</t>
+          <t>광명시 광명역로 51</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37.3424843</v>
+        <v>37.4165133</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7360173</v>
+        <v>126.8849516</v>
       </c>
     </row>
     <row r="21">
@@ -826,19 +826,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>오산</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>인천시 남구 관교동 15</t>
+          <t>경기 오산시 역광장로 59</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37.440941</v>
+        <v>37.1454386</v>
       </c>
       <c r="E21" t="n">
-        <v>126.701426</v>
+        <v>127.0668089</v>
       </c>
     </row>
     <row r="22">
@@ -847,19 +847,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>원주</t>
+          <t>시흥시화</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>원주시 단계동 878-1</t>
+          <t>경기 시흥시 정왕동 1745-6</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37.3446271</v>
+        <v>37.3424843</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9320966</v>
+        <v>126.7360173</v>
       </c>
     </row>
     <row r="23">
@@ -868,19 +868,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강릉</t>
+          <t>인천</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>강릉시 홍제동 992-2</t>
+          <t>인천시 남구 관교동 15</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37.75440830000001</v>
+        <v>37.440941</v>
       </c>
       <c r="E23" t="n">
-        <v>128.8796079</v>
+        <v>126.701426</v>
       </c>
     </row>
     <row r="24">
@@ -889,19 +889,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>속초</t>
+          <t>원주</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>속초시 조양동 1418</t>
+          <t>원주시 단계동 878-1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38.190651</v>
+        <v>37.3446271</v>
       </c>
       <c r="E24" t="n">
-        <v>128.598734</v>
+        <v>127.9320966</v>
       </c>
     </row>
     <row r="25">
@@ -910,19 +910,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>동해</t>
+          <t>강릉</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>동해시 부곡동 88</t>
+          <t>강릉시 홍제동 992-2</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37.5361758</v>
+        <v>37.75440830000001</v>
       </c>
       <c r="E25" t="n">
-        <v>129.1043567</v>
+        <v>128.8796079</v>
       </c>
     </row>
     <row r="26">
@@ -931,19 +931,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼척</t>
+          <t>속초</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>삼척시 남양동 334-1</t>
+          <t>속초시 조양동 1418</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37.4402737</v>
+        <v>38.190651</v>
       </c>
       <c r="E26" t="n">
-        <v>129.168342</v>
+        <v>128.598734</v>
       </c>
     </row>
     <row r="27">
@@ -952,19 +952,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>춘천</t>
+          <t>동해</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>춘천시 온의동 111-2</t>
+          <t>동해시 부곡동 88</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37.864655</v>
+        <v>37.5361758</v>
       </c>
       <c r="E27" t="n">
-        <v>127.717466</v>
+        <v>129.1043567</v>
       </c>
     </row>
     <row r="28">
@@ -973,19 +973,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>양양</t>
+          <t>삼척</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>양양군 송암리 190-1</t>
+          <t>삼척시 남양동 334-1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38.0826818</v>
+        <v>37.4402737</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6291141</v>
+        <v>129.168342</v>
       </c>
     </row>
     <row r="29">
@@ -994,19 +994,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>공주</t>
+          <t>춘천</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>공주시 신관동 609</t>
+          <t>춘천시 온의동 111-2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36.4687075</v>
+        <v>37.864655</v>
       </c>
       <c r="E29" t="n">
-        <v>127.1344603</v>
+        <v>127.717466</v>
       </c>
     </row>
     <row r="30">
@@ -1015,19 +1015,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>금산</t>
+          <t>양양</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>금산군 금산읍 상리 34-10</t>
+          <t>양양군 송암리 190-1</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36.1053743</v>
+        <v>38.0826818</v>
       </c>
       <c r="E30" t="n">
-        <v>127.4907256</v>
+        <v>128.6291141</v>
       </c>
     </row>
     <row r="31">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>논산</t>
+          <t>공주</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>논산시 논산읍 취암동 599-3</t>
+          <t>공주시 신관동 609</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36.2021582</v>
+        <v>36.4687075</v>
       </c>
       <c r="E31" t="n">
-        <v>127.085424</v>
+        <v>127.1344603</v>
       </c>
     </row>
     <row r="32">
@@ -1057,19 +1057,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>온양</t>
+          <t>금산</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>아산시 모종동 557-3</t>
+          <t>금산군 금산읍 상리 34-10</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>36.7845806</v>
+        <v>36.1053743</v>
       </c>
       <c r="E32" t="n">
-        <v>127.0152102</v>
+        <v>127.4907256</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>연무대</t>
+          <t>논산</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>논산시 연무읍 안심8동 1125</t>
+          <t>논산시 논산읍 취암동 599-3</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36.12516</v>
+        <v>36.2021582</v>
       </c>
       <c r="E33" t="n">
-        <v>127.0990596</v>
+        <v>127.085424</v>
       </c>
     </row>
     <row r="34">
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>조치원</t>
+          <t>온양</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>연기군 조치원읍 상리 96</t>
+          <t>아산시 모종동 557-3</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36.6017388</v>
+        <v>36.7845806</v>
       </c>
       <c r="E34" t="n">
-        <v>127.3027861</v>
+        <v>127.0152102</v>
       </c>
     </row>
     <row r="35">
@@ -1120,19 +1120,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>세종시</t>
+          <t>연무대</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>세종특별자치시 대평동 269-19</t>
+          <t>논산시 연무읍 안심8동 1125</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>35.84017559999999</v>
+        <v>36.12516</v>
       </c>
       <c r="E35" t="n">
-        <v>128.7319347</v>
+        <v>127.0990596</v>
       </c>
     </row>
     <row r="36">
@@ -1141,19 +1141,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>천안</t>
+          <t>조치원</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>천안시 신부동 354-1</t>
+          <t>연기군 조치원읍 상리 96</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36.8202509</v>
+        <v>36.6017388</v>
       </c>
       <c r="E36" t="n">
-        <v>127.1567084</v>
+        <v>127.3027861</v>
       </c>
     </row>
     <row r="37">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>예산</t>
+          <t>세종시</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>예산군 예산읍 산성리 647</t>
+          <t>세종특별자치시 대평동 269-19</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36.6944597</v>
+        <v>35.84017559999999</v>
       </c>
       <c r="E37" t="n">
-        <v>126.8328909</v>
+        <v>128.7319347</v>
       </c>
     </row>
     <row r="38">
@@ -1183,19 +1183,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>홍성</t>
+          <t>천안</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>홍성군 홍성읍 고암리 1042</t>
+          <t>천안시 신부동 354-1</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>36.6011474</v>
+        <v>36.8202509</v>
       </c>
       <c r="E38" t="n">
-        <v>126.6765497</v>
+        <v>127.1567084</v>
       </c>
     </row>
     <row r="39">
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>보령</t>
+          <t>예산</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>보령시 궁촌동 347</t>
+          <t>예산군 예산읍 산성리 647</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>36.3420778</v>
+        <v>36.6944597</v>
       </c>
       <c r="E39" t="n">
-        <v>126.58976</v>
+        <v>126.8328909</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>당진</t>
+          <t>홍성</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>당진군 당진읍 수청리 979</t>
+          <t>홍성군 홍성읍 고암리 1042</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36.8936109</v>
+        <v>36.6011474</v>
       </c>
       <c r="E40" t="n">
-        <v>126.6283278</v>
+        <v>126.6765497</v>
       </c>
     </row>
     <row r="41">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>서산</t>
+          <t>보령</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>서산시 동문동 309-3</t>
+          <t>보령시 궁촌동 347</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36.7817316</v>
+        <v>36.3420778</v>
       </c>
       <c r="E41" t="n">
-        <v>126.4587818</v>
+        <v>126.58976</v>
       </c>
     </row>
     <row r="42">
@@ -1267,19 +1267,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>태안</t>
+          <t>당진</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>태안군 태안읍 남문리 701</t>
+          <t>당진군 당진읍 수청리 979</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>36.7479543</v>
+        <v>36.8936109</v>
       </c>
       <c r="E42" t="n">
-        <v>126.3032037</v>
+        <v>126.6283278</v>
       </c>
     </row>
     <row r="43">
@@ -1288,19 +1288,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>대천욕장</t>
+          <t>서산</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>보령시 신흑동 10단지 아-10</t>
+          <t>서산시 동문동 309-3</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>36.3300121</v>
+        <v>36.7817316</v>
       </c>
       <c r="E43" t="n">
-        <v>126.5407612</v>
+        <v>126.4587818</v>
       </c>
     </row>
     <row r="44">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>안면도</t>
+          <t>태안</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>태안군 안면읍 승언리 1243-3</t>
+          <t>태안군 태안읍 남문리 701</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>36.5144302</v>
+        <v>36.7479543</v>
       </c>
       <c r="E44" t="n">
-        <v>126.3529178</v>
+        <v>126.3032037</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>덕산스파</t>
+          <t>대천욕장</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>예산군 덕산면 사동리 361</t>
+          <t>보령시 신흑동 10단지 아-10</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36.6940874</v>
+        <v>36.3300121</v>
       </c>
       <c r="E45" t="n">
-        <v>126.6558404</v>
+        <v>126.5407612</v>
       </c>
     </row>
     <row r="46">
@@ -1351,19 +1351,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>청양</t>
+          <t>안면도</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>청양군 청양읍 읍내리 208-4</t>
+          <t>태안군 안면읍 승언리 1243-3</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36.4522371</v>
+        <v>36.5144302</v>
       </c>
       <c r="E46" t="n">
-        <v>126.8036146</v>
+        <v>126.3529178</v>
       </c>
     </row>
     <row r="47">
@@ -1372,19 +1372,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>덕산스파</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>대전시 동구 용전동 63-3</t>
+          <t>예산군 덕산면 사동리 361</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36.3502842</v>
+        <v>36.6940874</v>
       </c>
       <c r="E47" t="n">
-        <v>127.4366222</v>
+        <v>126.6558404</v>
       </c>
     </row>
     <row r="48">
@@ -1393,19 +1393,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>대전청사</t>
+          <t>청양</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>대전시 서구 둔산2동 908</t>
+          <t>청양군 청양읍 읍내리 208-4</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>36.3613831</v>
+        <v>36.4522371</v>
       </c>
       <c r="E48" t="n">
-        <v>127.393385</v>
+        <v>126.8036146</v>
       </c>
     </row>
     <row r="49">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>유성</t>
+          <t>대전</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>대전시 유성구 장대동 281-23</t>
+          <t>대전시 동구 용전동 63-3</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>36.3595302</v>
+        <v>36.3502842</v>
       </c>
       <c r="E49" t="n">
-        <v>127.3364189</v>
+        <v>127.4366222</v>
       </c>
     </row>
     <row r="50">
@@ -1435,19 +1435,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>제천</t>
+          <t>대전청사</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>제천시 의림동 25-24</t>
+          <t>대전시 서구 둔산2동 908</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>37.1428831</v>
+        <v>36.3613831</v>
       </c>
       <c r="E50" t="n">
-        <v>128.2109791</v>
+        <v>127.393385</v>
       </c>
     </row>
     <row r="51">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>청주</t>
+          <t>유성</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>청주시 흥덕구 가경동 1416</t>
+          <t>대전시 유성구 장대동 281-23</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>36.6269984</v>
+        <v>36.3595302</v>
       </c>
       <c r="E51" t="n">
-        <v>127.430431</v>
+        <v>127.3364189</v>
       </c>
     </row>
     <row r="52">
@@ -1477,19 +1477,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>충주</t>
+          <t>제천</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>충주시 칠금동 849</t>
+          <t>제천시 의림동 25-24</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>36.982309</v>
+        <v>37.1428831</v>
       </c>
       <c r="E52" t="n">
-        <v>127.9144732</v>
+        <v>128.2109791</v>
       </c>
     </row>
     <row r="53">
@@ -1498,19 +1498,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>황간</t>
+          <t>청주</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>영동군 황간면 마산리 42</t>
+          <t>청주시 흥덕구 가경동 1416</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>36.2242424</v>
+        <v>36.6269984</v>
       </c>
       <c r="E53" t="n">
-        <v>127.9122781</v>
+        <v>127.430431</v>
       </c>
     </row>
     <row r="54">
@@ -1519,19 +1519,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>전주공용</t>
+          <t>충주</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>전주시 덕진구 금암동 767-2</t>
+          <t>충주시 칠금동 849</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>35.8346387</v>
+        <v>36.982309</v>
       </c>
       <c r="E54" t="n">
-        <v>127.1287498</v>
+        <v>127.9144732</v>
       </c>
     </row>
     <row r="55">
@@ -1540,19 +1540,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>고창</t>
+          <t>황간</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>고창군 고창읍 읍내리 629</t>
+          <t>영동군 황간면 마산리 42</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35.4357231</v>
+        <v>36.2242424</v>
       </c>
       <c r="E55" t="n">
-        <v>126.6964209</v>
+        <v>127.9122781</v>
       </c>
     </row>
     <row r="56">
@@ -1561,19 +1561,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>군산</t>
+          <t>전주공용</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>군산시 경암동 612-7</t>
+          <t>전주시 덕진구 금암동 767-2</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>35.9781122</v>
+        <v>35.8346387</v>
       </c>
       <c r="E56" t="n">
-        <v>126.7246487</v>
+        <v>127.1287498</v>
       </c>
     </row>
     <row r="57">
@@ -1582,19 +1582,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>김제</t>
+          <t>고창</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>김제시 요촌동 47-28</t>
+          <t>고창군 고창읍 읍내리 629</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35.8031199</v>
+        <v>35.4357231</v>
       </c>
       <c r="E57" t="n">
-        <v>126.893077</v>
+        <v>126.6964209</v>
       </c>
     </row>
     <row r="58">
@@ -1603,19 +1603,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>남원</t>
+          <t>군산</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>남원시 도통동 495-1</t>
+          <t>군산시 경암동 612-7</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35.4219289</v>
+        <v>35.9781122</v>
       </c>
       <c r="E58" t="n">
-        <v>127.3944877</v>
+        <v>126.7246487</v>
       </c>
     </row>
     <row r="59">
@@ -1624,19 +1624,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>부안</t>
+          <t>김제</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>부안군 부안읍 봉덕리 574-13</t>
+          <t>김제시 요촌동 47-28</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>35.7269318</v>
+        <v>35.8031199</v>
       </c>
       <c r="E59" t="n">
-        <v>126.7369583</v>
+        <v>126.893077</v>
       </c>
     </row>
     <row r="60">
@@ -1645,19 +1645,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>순창</t>
+          <t>남원</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>순창군 순창읍 순화리 114-9</t>
+          <t>남원시 도통동 495-1</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>35.3767492</v>
+        <v>35.4219289</v>
       </c>
       <c r="E60" t="n">
-        <v>127.1412152</v>
+        <v>127.3944877</v>
       </c>
     </row>
     <row r="61">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>익산</t>
+          <t>부안</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>익산시 평화동 247-1</t>
+          <t>부안군 부안읍 봉덕리 574-13</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35.9313276</v>
+        <v>35.7269318</v>
       </c>
       <c r="E61" t="n">
-        <v>126.9444979</v>
+        <v>126.7369583</v>
       </c>
     </row>
     <row r="62">
@@ -1687,19 +1687,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>정읍</t>
+          <t>순창</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>정읍시 연지동 312-12</t>
+          <t>순창군 순창읍 순화리 114-9</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35.5725609</v>
+        <v>35.3767492</v>
       </c>
       <c r="E62" t="n">
-        <v>126.8451697</v>
+        <v>127.1412152</v>
       </c>
     </row>
     <row r="63">
@@ -1708,19 +1708,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>진안</t>
+          <t>익산</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>진안군 진안읍 군상리 430-19</t>
+          <t>익산시 평화동 247-1</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35.791424</v>
+        <v>35.9313276</v>
       </c>
       <c r="E63" t="n">
-        <v>127.4270028</v>
+        <v>126.9444979</v>
       </c>
     </row>
     <row r="64">
@@ -1729,19 +1729,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>구미</t>
+          <t>정읍</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>구미시 원평1동1073-1</t>
+          <t>정읍시 연지동 312-12</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>36.1230027</v>
+        <v>35.5725609</v>
       </c>
       <c r="E64" t="n">
-        <v>128.3520115</v>
+        <v>126.8451697</v>
       </c>
     </row>
     <row r="65">
@@ -1750,19 +1750,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>김천</t>
+          <t>진안</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>김천시 성내동 38-1</t>
+          <t>진안군 진안읍 군상리 430-19</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>36.1231205</v>
+        <v>35.791424</v>
       </c>
       <c r="E65" t="n">
-        <v>128.1185574</v>
+        <v>127.4270028</v>
       </c>
     </row>
     <row r="66">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>경주</t>
+          <t>구미</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>경주시 노서동 243-5</t>
+          <t>구미시 원평1동1073-1</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>35.838656</v>
+        <v>36.1230027</v>
       </c>
       <c r="E66" t="n">
-        <v>129.2034673</v>
+        <v>128.3520115</v>
       </c>
     </row>
     <row r="67">
@@ -1792,19 +1792,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>상주</t>
+          <t>김천</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>상주시 무양동 291</t>
+          <t>김천시 성내동 38-1</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36.4186491</v>
+        <v>36.1231205</v>
       </c>
       <c r="E67" t="n">
-        <v>128.1518105</v>
+        <v>128.1185574</v>
       </c>
     </row>
     <row r="68">
@@ -1813,19 +1813,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>영주</t>
+          <t>경주</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>영주시 대학로 352(가흥동)</t>
+          <t>경주시 노서동 243-5</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>36.8167142</v>
+        <v>35.838656</v>
       </c>
       <c r="E68" t="n">
-        <v>128.6135827</v>
+        <v>129.2034673</v>
       </c>
     </row>
     <row r="69">
@@ -1834,19 +1834,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>영천</t>
+          <t>상주</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>영천시 금노동 584-3</t>
+          <t>상주시 무양동 291</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35.9603445</v>
+        <v>36.4186491</v>
       </c>
       <c r="E69" t="n">
-        <v>128.9276006</v>
+        <v>128.1518105</v>
       </c>
     </row>
     <row r="70">
@@ -1855,19 +1855,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>안동</t>
+          <t>영주</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>안동시 송현동 713-6</t>
+          <t>영주시 대학로 352(가흥동)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>36.5749138</v>
+        <v>36.8167142</v>
       </c>
       <c r="E70" t="n">
-        <v>128.6758865</v>
+        <v>128.6135827</v>
       </c>
     </row>
     <row r="71">
@@ -1876,19 +1876,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>점촌</t>
+          <t>영천</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>문경시 모전로 54</t>
+          <t>영천시 금노동 584-3</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>36.58609149999999</v>
+        <v>35.9603445</v>
       </c>
       <c r="E71" t="n">
-        <v>128.192309</v>
+        <v>128.9276006</v>
       </c>
     </row>
     <row r="72">
@@ -1897,19 +1897,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>포항(천일)</t>
+          <t>안동</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>포항시 남구 해도동 33-7</t>
+          <t>안동시 송현동 713-6</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>36.0280294</v>
+        <v>36.5749138</v>
       </c>
       <c r="E72" t="n">
-        <v>129.3679815</v>
+        <v>128.6758865</v>
       </c>
     </row>
     <row r="73">
@@ -1918,19 +1918,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>대구금호</t>
+          <t>점촌</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>대구시 동구 신천4동 329-3</t>
+          <t>문경시 모전로 54</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>35.8778124</v>
+        <v>36.58609149999999</v>
       </c>
       <c r="E73" t="n">
-        <v>128.6284527</v>
+        <v>128.192309</v>
       </c>
     </row>
     <row r="74">
@@ -1939,19 +1939,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>대구동양</t>
+          <t>포항(천일)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>대구시 동구 신천4동 328-2</t>
+          <t>포항시 남구 해도동 33-7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>35.8767285</v>
+        <v>36.0280294</v>
       </c>
       <c r="E74" t="n">
-        <v>128.6283865</v>
+        <v>129.3679815</v>
       </c>
     </row>
     <row r="75">
@@ -1960,19 +1960,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>대구중앙</t>
+          <t>대구금호</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>대구시 동구 신천4동 327-1</t>
+          <t>대구시 동구 신천4동 329-3</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>35.8761392</v>
+        <v>35.8778124</v>
       </c>
       <c r="E75" t="n">
-        <v>128.6273187</v>
+        <v>128.6284527</v>
       </c>
     </row>
     <row r="76">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>대구한진</t>
+          <t>대구동양</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>대구시 동구 신천4동 328-1</t>
+          <t>대구시 동구 신천4동 328-2</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>35.8764911</v>
+        <v>35.8767285</v>
       </c>
       <c r="E76" t="n">
-        <v>128.6275895</v>
+        <v>128.6283865</v>
       </c>
     </row>
     <row r="77">
@@ -2002,19 +2002,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>서대구</t>
+          <t>대구중앙</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>대구시 북구 노원3가 685</t>
+          <t>대구시 동구 신천4동 327-1</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>35.8889054</v>
+        <v>35.8761392</v>
       </c>
       <c r="E77" t="n">
-        <v>128.5688917</v>
+        <v>128.6273187</v>
       </c>
     </row>
     <row r="78">
@@ -2023,19 +2023,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>대구한진</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>광주시 서구 광천동 49-1</t>
+          <t>대구시 동구 신천4동 328-1</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>35.1597624</v>
+        <v>35.8764911</v>
       </c>
       <c r="E78" t="n">
-        <v>126.8803477</v>
+        <v>128.6275895</v>
       </c>
     </row>
     <row r="79">
@@ -2044,19 +2044,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>강진</t>
+          <t>서대구</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>강진군 강진읍 평동리 167-1</t>
+          <t>대구시 북구 노원3가 685</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>34.6385099</v>
+        <v>35.8889054</v>
       </c>
       <c r="E79" t="n">
-        <v>126.7679251</v>
+        <v>128.5688917</v>
       </c>
     </row>
     <row r="80">
@@ -2065,19 +2065,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>고흥</t>
+          <t>광주</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>고흥군 고흥읍 소문리 218-11</t>
+          <t>광주시 서구 광천동 49-1</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>34.6073336</v>
+        <v>35.1597624</v>
       </c>
       <c r="E80" t="n">
-        <v>127.2812061</v>
+        <v>126.8803477</v>
       </c>
     </row>
     <row r="81">
@@ -2086,19 +2086,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>광양</t>
+          <t>강진</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>광양시 광양읍 인동리 413</t>
+          <t>강진군 강진읍 평동리 167-1</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>34.9697972</v>
+        <v>34.6385099</v>
       </c>
       <c r="E81" t="n">
-        <v>127.590815</v>
+        <v>126.7679251</v>
       </c>
     </row>
     <row r="82">
@@ -2107,19 +2107,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>동광양</t>
+          <t>고흥</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>광양시 중동 1691</t>
+          <t>고흥군 고흥읍 소문리 218-11</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>34.9315987</v>
+        <v>34.6073336</v>
       </c>
       <c r="E82" t="n">
-        <v>127.6937088</v>
+        <v>127.2812061</v>
       </c>
     </row>
     <row r="83">
@@ -2128,19 +2128,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>나주</t>
+          <t>광양</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>나주시 중앙동 95-2</t>
+          <t>광양시 광양읍 인동리 413</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>35.033327</v>
+        <v>34.9697972</v>
       </c>
       <c r="E83" t="n">
-        <v>126.7214316</v>
+        <v>127.590815</v>
       </c>
     </row>
     <row r="84">
@@ -2149,19 +2149,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>녹동</t>
+          <t>동광양</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>고흥군 도양읍 봉암리 1613-1</t>
+          <t>광양시 중동 1691</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34.5327471</v>
+        <v>34.9315987</v>
       </c>
       <c r="E84" t="n">
-        <v>127.1392983</v>
+        <v>127.6937088</v>
       </c>
     </row>
     <row r="85">
@@ -2170,19 +2170,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>담양</t>
+          <t>나주</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>담양군 담양읍 지침리 132-17</t>
+          <t>나주시 중앙동 95-2</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>35.3153435</v>
+        <v>35.033327</v>
       </c>
       <c r="E85" t="n">
-        <v>126.9838655</v>
+        <v>126.7214316</v>
       </c>
     </row>
     <row r="86">
@@ -2191,19 +2191,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>목포</t>
+          <t>녹동</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>목포시 상동 220</t>
+          <t>고흥군 도양읍 봉암리 1613-1</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>34.8129338</v>
+        <v>34.5327471</v>
       </c>
       <c r="E86" t="n">
-        <v>126.4182884</v>
+        <v>127.1392983</v>
       </c>
     </row>
     <row r="87">
@@ -2212,19 +2212,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>문장</t>
+          <t>담양</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>함평군 해보면 문장리 822-24</t>
+          <t>담양군 담양읍 지침리 132-17</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>35.1811927</v>
+        <v>35.3153435</v>
       </c>
       <c r="E87" t="n">
-        <v>126.6055</v>
+        <v>126.9838655</v>
       </c>
     </row>
     <row r="88">
@@ -2233,19 +2233,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>무안</t>
+          <t>목포</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>무안군 무안읍 성동리 873-11</t>
+          <t>목포시 상동 220</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>34.9881432</v>
+        <v>34.8129338</v>
       </c>
       <c r="E88" t="n">
-        <v>126.4782131</v>
+        <v>126.4182884</v>
       </c>
     </row>
     <row r="89">
@@ -2254,19 +2254,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>보성</t>
+          <t>문장</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>보성군 보성읍 원봉리 5-1</t>
+          <t>함평군 해보면 문장리 822-24</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>34.7637846</v>
+        <v>35.1811927</v>
       </c>
       <c r="E89" t="n">
-        <v>127.0757443</v>
+        <v>126.6055</v>
       </c>
     </row>
     <row r="90">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>벌교</t>
+          <t>무안</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>보성군 벌교읍 회정리 432</t>
+          <t>무안군 무안읍 성동리 873-11</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>34.8482303</v>
+        <v>34.9881432</v>
       </c>
       <c r="E90" t="n">
-        <v>127.351137</v>
+        <v>126.4782131</v>
       </c>
     </row>
     <row r="91">
@@ -2296,19 +2296,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>순천</t>
+          <t>보성</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>순천시 장천동 18-22</t>
+          <t>보성군 보성읍 원봉리 5-1</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>34.9475901</v>
+        <v>34.7637846</v>
       </c>
       <c r="E91" t="n">
-        <v>127.4913888</v>
+        <v>127.0757443</v>
       </c>
     </row>
     <row r="92">
@@ -2317,19 +2317,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>여수</t>
+          <t>벌교</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>여수시 오림동 390</t>
+          <t>보성군 벌교읍 회정리 432</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34.7586286</v>
+        <v>34.8482303</v>
       </c>
       <c r="E92" t="n">
-        <v>127.7171304</v>
+        <v>127.351137</v>
       </c>
     </row>
     <row r="93">
@@ -2338,19 +2338,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>여천</t>
+          <t>순천</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>여수시 무선로 200</t>
+          <t>순천시 장천동 18-22</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>34.774316</v>
+        <v>34.9475901</v>
       </c>
       <c r="E93" t="n">
-        <v>127.6503432</v>
+        <v>127.4913888</v>
       </c>
     </row>
     <row r="94">
@@ -2359,19 +2359,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>영광</t>
+          <t>여수</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>영광군 영광읍 신하리 10-1</t>
+          <t>여수시 오림동 390</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>35.2758514</v>
+        <v>34.7586286</v>
       </c>
       <c r="E94" t="n">
-        <v>126.50193</v>
+        <v>127.7171304</v>
       </c>
     </row>
     <row r="95">
@@ -2380,19 +2380,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>영산포</t>
+          <t>여천</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>나주시 이창동 191</t>
+          <t>여수시 무선로 200</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>34.9945367</v>
+        <v>34.774316</v>
       </c>
       <c r="E95" t="n">
-        <v>126.7127148</v>
+        <v>127.6503432</v>
       </c>
     </row>
     <row r="96">
@@ -2401,19 +2401,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>영암</t>
+          <t>영광</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>영암군 영암읍 남풍리 4-1</t>
+          <t>영광군 영광읍 신하리 10-1</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>34.7965948</v>
+        <v>35.2758514</v>
       </c>
       <c r="E96" t="n">
-        <v>126.7029498</v>
+        <v>126.50193</v>
       </c>
     </row>
     <row r="97">
@@ -2422,19 +2422,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>완도</t>
+          <t>영산포</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>완도군 완도읍 군내리 1230</t>
+          <t>나주시 이창동 191</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>34.3182425</v>
+        <v>34.9945367</v>
       </c>
       <c r="E97" t="n">
-        <v>126.7453336</v>
+        <v>126.7127148</v>
       </c>
     </row>
     <row r="98">
@@ -2443,19 +2443,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>장흥</t>
+          <t>영암</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>장흥군 장흥읍 건산리 382</t>
+          <t>영암군 영암읍 남풍리 4-1</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>34.67728719999999</v>
+        <v>34.7965948</v>
       </c>
       <c r="E98" t="n">
-        <v>126.9097819</v>
+        <v>126.7029498</v>
       </c>
     </row>
     <row r="99">
@@ -2464,19 +2464,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>진도</t>
+          <t>완도</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>진도군 진도읍 남동리 782-1</t>
+          <t>완도군 완도읍 군내리 1230</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>34.478937</v>
+        <v>34.3182425</v>
       </c>
       <c r="E99" t="n">
-        <v>126.2629597</v>
+        <v>126.7453336</v>
       </c>
     </row>
     <row r="100">
@@ -2485,19 +2485,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>함평</t>
+          <t>장흥</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>함평군 함평읍 기각리 88-1</t>
+          <t>장흥군 장흥읍 건산리 382</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>35.0708861</v>
+        <v>34.67728719999999</v>
       </c>
       <c r="E100" t="n">
-        <v>126.5224377</v>
+        <v>126.9097819</v>
       </c>
     </row>
     <row r="101">
@@ -2506,19 +2506,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>해남</t>
+          <t>진도</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>해남군 해남읍 해리 401</t>
+          <t>진도군 진도읍 남동리 782-1</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>34.5703163</v>
+        <v>34.478937</v>
       </c>
       <c r="E101" t="n">
-        <v>126.6078393</v>
+        <v>126.2629597</v>
       </c>
     </row>
     <row r="102">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>삼호</t>
+          <t>함평</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>영암군 삼호읍 삼호중앙로 246</t>
+          <t>함평군 함평읍 기각리 88-1</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>34.7458473</v>
+        <v>35.0708861</v>
       </c>
       <c r="E102" t="n">
-        <v>126.4773484</v>
+        <v>126.5224377</v>
       </c>
     </row>
     <row r="103">
@@ -2548,19 +2548,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>마산</t>
+          <t>해남</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>마산시 양덕2동 154-1</t>
+          <t>해남군 해남읍 해리 401</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>35.2230175</v>
+        <v>34.5703163</v>
       </c>
       <c r="E103" t="n">
-        <v>128.5881383</v>
+        <v>126.6078393</v>
       </c>
     </row>
     <row r="104">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>내서</t>
+          <t>삼호</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>마산시 내서읍 중리 895-1 농수산물 도매시장내</t>
+          <t>영암군 삼호읍 삼호중앙로 246</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>35.2461959</v>
+        <v>34.7458473</v>
       </c>
       <c r="E104" t="n">
-        <v>128.5194495</v>
+        <v>126.4773484</v>
       </c>
     </row>
     <row r="105">
@@ -2590,19 +2590,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>진주</t>
+          <t>마산</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>진주시 칠암동 489-2</t>
+          <t>마산시 양덕2동 154-1</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>35.1783238</v>
+        <v>35.2230175</v>
       </c>
       <c r="E105" t="n">
-        <v>128.092921</v>
+        <v>128.5881383</v>
       </c>
     </row>
     <row r="106">
@@ -2611,19 +2611,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>창원</t>
+          <t>내서</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>창원시 팔용동 용원상업지구 35</t>
+          <t>마산시 내서읍 중리 895-1 농수산물 도매시장내</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>35.2475336</v>
+        <v>35.2461959</v>
       </c>
       <c r="E106" t="n">
-        <v>128.6208175</v>
+        <v>128.5194495</v>
       </c>
     </row>
     <row r="107">
@@ -2632,19 +2632,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>김해</t>
+          <t>진주</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>김해시 외동 1264</t>
+          <t>진주시 칠암동 489-2</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>35.2294709</v>
+        <v>35.1783238</v>
       </c>
       <c r="E107" t="n">
-        <v>128.8728231</v>
+        <v>128.092921</v>
       </c>
     </row>
     <row r="108">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>통영</t>
+          <t>창원</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>통영시 광도면 죽림리 1569번지</t>
+          <t>창원시 팔용동 용원상업지구 35</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>34.8850701</v>
+        <v>35.2475336</v>
       </c>
       <c r="E108" t="n">
-        <v>128.4169314</v>
+        <v>128.6208175</v>
       </c>
     </row>
     <row r="109">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>김해</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>울산시 남구 삼산동 1480-4</t>
+          <t>김해시 외동 1264</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>35.5376014</v>
+        <v>35.2294709</v>
       </c>
       <c r="E109" t="n">
-        <v>129.3392613</v>
+        <v>128.8728231</v>
       </c>
     </row>
     <row r="110">
@@ -2695,19 +2695,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>울산신북</t>
+          <t>통영</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>울산시 남구 무거동 327-21번지</t>
+          <t>통영시 광도면 죽림리 1569번지</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>35.550844</v>
+        <v>34.8850701</v>
       </c>
       <c r="E110" t="n">
-        <v>129.263287</v>
+        <v>128.4169314</v>
       </c>
     </row>
     <row r="111">
@@ -2716,19 +2716,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>울산</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>부산시 금정구 노포동 133</t>
+          <t>울산시 남구 삼산동 1480-4</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>35.2836825</v>
+        <v>35.5376014</v>
       </c>
       <c r="E111" t="n">
-        <v>129.0963782</v>
+        <v>129.3392613</v>
       </c>
     </row>
     <row r="112">
@@ -2737,21 +2737,64 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>울산신북</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>울산시 남구 무거동 327-21번지</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>35.550844</v>
+      </c>
+      <c r="E112" t="n">
+        <v>129.263287</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>부산시 금정구 노포동 133</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>35.2836825</v>
+      </c>
+      <c r="E113" t="n">
+        <v>129.0963782</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>서부산(사상)</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>부산시 사상구 괘법동 533번지</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D114" t="n">
         <v>35.1632698</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E114" t="n">
         <v>128.9824975</v>
       </c>
     </row>
+    <row r="115"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
